--- a/plant.xlsx
+++ b/plant.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemarie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemarie/Desktop/Robotics/robotics final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29DC16-8765-CB40-885D-00BEE0DC41D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62E675-B5A8-074A-A8EF-576A4344DFFF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{3E9BF8D4-5728-0246-BDA6-D65734CA3C81}"/>
   </bookViews>
@@ -18,10 +18,10 @@
     <sheet name="photos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="eight">INDEX(input!$A$2:$B$5, MATCH(input!$F$4, photos!$A$2:$A$5, 0),2)</definedName>
+    <definedName name="eight">INDEX(input!$A$2:$B$5, MATCH(input!#REF!, photos!$A$2:$A$5, 0),2)</definedName>
     <definedName name="five">INDEX(input!$A$2:$B$5, MATCH(input!$C$4, photos!$A$2:$A$5, 0),2)</definedName>
     <definedName name="form">INDEX(photos!$A$2:$B$5, MATCH(photos!$D$3, photos!$A$2:$A$5, 0),2)</definedName>
-    <definedName name="four">INDEX(input!$A$2:$B$5, MATCH(input!$F$3, photos!$A$2:$A$5, 0),2)</definedName>
+    <definedName name="four">INDEX(input!$A$2:$B$5, MATCH(input!#REF!, photos!$A$2:$A$5, 0),2)</definedName>
     <definedName name="Marigold">INDEX(input!$A$2:$B$5, MATCH(input!$E$4, photos!$A$2:$A$5, 0),2)</definedName>
     <definedName name="one">INDEX(input!$A$2:$B$5, MATCH(input!$C$3, photos!$A$2:$A$5, 0),2)</definedName>
     <definedName name="seven">INDEX(input!$A$2:$B$5, MATCH(input!$E$4, photos!$A$2:$A$5, 0),2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Marigold</t>
   </si>
@@ -99,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -132,11 +132,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color theme="0"/>
-      </right>
-      <top/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -147,18 +149,9 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -168,21 +161,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -282,71 +274,6 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2667000</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>1900912</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Picture 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B27F4E-28B8-8C4D-882A-FECD6316252F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="one" spid="_x0000_s1067"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="2006600" y="2349500"/>
-              <a:ext cx="2501900" cy="1481812"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>177800</xdr:colOff>
           <xdr:row>2</xdr:row>
@@ -371,13 +298,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="two" spid="_x0000_s1068"/>
+                  <a14:cameraTool cellRange="two" spid="_x0000_s1083"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -413,15 +340,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>457200</xdr:rowOff>
+          <xdr:rowOff>1473200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>2667000</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>1939012</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>444500</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>796012</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -436,13 +363,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="three" spid="_x0000_s1069"/>
+                  <a14:cameraTool cellRange="three" spid="_x0000_s1084"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -450,137 +377,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7620000" y="2387600"/>
-              <a:ext cx="2501900" cy="1481812"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>2667000</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>1964412</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Picture 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EF2AA5-08BF-704A-98AD-757E1AD00875}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="four" spid="_x0000_s1070"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="10426700" y="2413000"/>
-              <a:ext cx="2501900" cy="1481812"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>469900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2654300</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1951712</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="Picture 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87EEDA87-EF9A-5544-B657-D8A8F7FA0042}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="five" spid="_x0000_s1071"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1993900" y="4559300"/>
+              <a:off x="8204200" y="3403600"/>
               <a:ext cx="2501900" cy="1481812"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -631,13 +428,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="six" spid="_x0000_s1072"/>
+                  <a14:cameraTool cellRange="six" spid="_x0000_s1085"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -696,13 +493,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="seven" spid="_x0000_s1073"/>
+                  <a14:cameraTool cellRange="seven" spid="_x0000_s1086"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -711,71 +508,6 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="7620000" y="4559300"/>
-              <a:ext cx="2501900" cy="1481812"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>2654300</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1964412</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Picture 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02EFB20-7A4F-EB4B-A34D-80945BC82B53}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="eight" spid="_x0000_s1074"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="10414000" y="4572000"/>
               <a:ext cx="2501900" cy="1481812"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -826,13 +558,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$2" spid="_x0000_s1075"/>
+                  <a14:cameraTool cellRange="$N$2" spid="_x0000_s1087"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1138,7 +870,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="form" spid="_x0000_s2057"/>
+                  <a14:cameraTool cellRange="form" spid="_x0000_s2059"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1477,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A7ED5-5837-0C4E-B714-6FE7A78F3A62}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1505,13 +1237,10 @@
     <row r="2" spans="1:10" ht="119" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <f>INDEX(input!$A$2:$B$5, MATCH(input!$D$3, photos!$A$2:$A$5, 0),2)</f>
-        <v>0</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1519,43 +1248,33 @@
     </row>
     <row r="3" spans="1:10" ht="170" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="170" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="117" customHeight="1">
       <c r="A5" s="1"/>
@@ -1953,11 +1672,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{CABEAEDE-817F-884D-81AD-C194F13B3263}">
       <formula1>"Marigold, Peony, Lilly, None"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:F4" xr:uid="{5C059A3A-8F34-BC46-9DA2-B75C091D6AEC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:E4" xr:uid="{5C059A3A-8F34-BC46-9DA2-B75C091D6AEC}">
       <formula1>"Lilly, Marigold, Peony, None"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <picture r:id="rId3"/>
@@ -1992,9 +1712,9 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="str">
+      <c r="A2" t="b">
         <f>IF(input!C3 = "None", "N", IF(input!C3 = "Marigold", "M", IF(input!C3 = "Peony"," P", IF(input!C3= "Lilly", "L"))))</f>
-        <v>M</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
         <f>IF(input!D3 = "None", "N", IF(input!D3 = "Marigold", "M", IF(input!D3 = "Peony"," P", IF(input!D3= "Lilly", "L"))))</f>
@@ -2004,15 +1724,15 @@
         <f>IF(input!E3 = "None", "N", IF(input!E3 = "Marigold", "M", IF(input!E3 = "Peony"," P", IF(input!E3= "Lilly", "L"))))</f>
         <v>M</v>
       </c>
-      <c r="D2" t="str">
-        <f>IF(input!F3 = "None", "N", IF(input!F3 = "Marigold", "M", IF(input!F3 = "Peony"," P", IF(input!F3= "Lilly", "L"))))</f>
-        <v>M</v>
+      <c r="D2" t="e">
+        <f>IF(input!#REF! = "None", "N", IF(input!#REF! = "Marigold", "M", IF(input!#REF! = "Peony"," P", IF(input!#REF!= "Lilly", "L"))))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="str">
+      <c r="A3" t="b">
         <f>IF(input!C4 = "None", "N", IF(input!C4 = "Marigold", "M", IF(input!C4 = "Peony"," P", IF(input!C4= "Lilly", "L"))))</f>
-        <v>M</v>
+        <v>0</v>
       </c>
       <c r="B3" t="str">
         <f>IF(input!D4 = "None", "N", IF(input!D4 = "Marigold", "M", IF(input!D4 = "Peony"," P", IF(input!D4= "Lilly", "L"))))</f>
@@ -2022,9 +1742,9 @@
         <f>IF(input!E4 = "None", "N", IF(input!E4 = "Marigold", "M", IF(input!E4 = "Peony"," P", IF(input!E4= "Lilly", "L"))))</f>
         <v>N</v>
       </c>
-      <c r="D3" t="str">
-        <f>IF(input!F4 = "None", "N", IF(input!F4 = "Marigold", "M", IF(input!F4 = "Peony"," P", IF(input!F4= "Lilly", "L"))))</f>
-        <v>M</v>
+      <c r="D3" t="e">
+        <f>IF(input!#REF! = "None", "N", IF(input!#REF! = "Marigold", "M", IF(input!#REF! = "Peony"," P", IF(input!#REF!= "Lilly", "L"))))</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/plant.xlsx
+++ b/plant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemarie/Desktop/Robotics/robotics final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62E675-B5A8-074A-A8EF-576A4344DFFF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F2F22E-B38F-5341-BB19-85673C0042E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{3E9BF8D4-5728-0246-BDA6-D65734CA3C81}"/>
+    <workbookView xWindow="6320" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{3E9BF8D4-5728-0246-BDA6-D65734CA3C81}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Marigold</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Lilly</t>
+  </si>
+  <si>
+    <t>Carnation</t>
+  </si>
+  <si>
+    <t>Gardenia</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -132,19 +138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -161,22 +154,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,71 +262,6 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>444500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2679700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>1926312</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Picture 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341C24CC-FAF9-E945-94DA-2890103152C4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="two" spid="_x0000_s1083"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4826000" y="2374900"/>
-              <a:ext cx="2501900" cy="1481812"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>749300</xdr:colOff>
           <xdr:row>2</xdr:row>
@@ -363,13 +286,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="three" spid="_x0000_s1084"/>
+                  <a14:cameraTool cellRange="three" spid="_x0000_s1110"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -378,136 +301,6 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="8204200" y="3403600"/>
-              <a:ext cx="2501900" cy="1481812"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>469900</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>330200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2501900</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1812012</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Picture 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D808D80-1DA5-C24B-919C-1704E63D3AA3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="six" spid="_x0000_s1085"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="5118100" y="4419600"/>
-              <a:ext cx="2032000" cy="1481812"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>469900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>2667000</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1951712</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="Picture 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701DFE8A-EED3-A14F-B3F9-3539E36B1BCE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="seven" spid="_x0000_s1086"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="7620000" y="4559300"/>
               <a:ext cx="2501900" cy="1481812"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -558,13 +351,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$2" spid="_x0000_s1087"/>
+                  <a14:cameraTool cellRange="$N$2" spid="_x0000_s1111"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -870,7 +663,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="form" spid="_x0000_s2059"/>
+                  <a14:cameraTool cellRange="form" spid="_x0000_s2066"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1209,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A7ED5-5837-0C4E-B714-6FE7A78F3A62}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1250,11 +1043,11 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1266,10 +1059,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1340,7 +1133,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1532,7 +1325,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1665,15 +1458,18 @@
       <c r="H38" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{88E74FA7-F6D6-D448-9CF4-5F8B300DBABF}">
       <formula1>"None, Marigold, Peony, Lilly"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{CABEAEDE-817F-884D-81AD-C194F13B3263}">
       <formula1>"Marigold, Peony, Lilly, None"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:E4" xr:uid="{5C059A3A-8F34-BC46-9DA2-B75C091D6AEC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C4" xr:uid="{5C059A3A-8F34-BC46-9DA2-B75C091D6AEC}">
       <formula1>"Lilly, Marigold, Peony, None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:E4" xr:uid="{2962CDD5-8FC6-384D-B1EF-512427A76022}">
+      <formula1>"Lisianthus, Rose, Carnation, Gardenia"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1686,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD8FC5D-5434-5D47-BCF7-25B3DC06C8BA}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1697,7 +1493,7 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1707,44 +1503,23 @@
       <c r="C1">
         <v>3</v>
       </c>
-      <c r="D1">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="str">
+        <f>IF(input!D3 = "Lisianthus", "1", IF(input!D3 = "Rose", "2", IF(input!D3 = "Carnation"," 3", IF(input!D3= "Gardenia", "5"))))</f>
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(input!E3 = "Lisianthus", "1", IF(input!E3 = "Rose", "2", IF(input!E3 = "Carnation"," 3", IF(input!E3= "Gardenia", "5"))))</f>
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(input!D4 = "Lisianthus", "1", IF(input!D4 = "Rose", "2", IF(input!D4 = "Carnation"," 3", IF(input!D4= "Gardenia", "5"))))</f>
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(input!E4 = "Lisianthus", "1", IF(input!E4 = "Rose", "2", IF(input!E4 = "Carnation"," 3", IF(input!E4= "Gardenia", "4"))))</f>
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="b">
-        <f>IF(input!C3 = "None", "N", IF(input!C3 = "Marigold", "M", IF(input!C3 = "Peony"," P", IF(input!C3= "Lilly", "L"))))</f>
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(input!D3 = "None", "N", IF(input!D3 = "Marigold", "M", IF(input!D3 = "Peony"," P", IF(input!D3= "Lilly", "L"))))</f>
-        <v>M</v>
-      </c>
-      <c r="C2" t="str">
-        <f>IF(input!E3 = "None", "N", IF(input!E3 = "Marigold", "M", IF(input!E3 = "Peony"," P", IF(input!E3= "Lilly", "L"))))</f>
-        <v>M</v>
-      </c>
-      <c r="D2" t="e">
-        <f>IF(input!#REF! = "None", "N", IF(input!#REF! = "Marigold", "M", IF(input!#REF! = "Peony"," P", IF(input!#REF!= "Lilly", "L"))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="b">
-        <f>IF(input!C4 = "None", "N", IF(input!C4 = "Marigold", "M", IF(input!C4 = "Peony"," P", IF(input!C4= "Lilly", "L"))))</f>
-        <v>0</v>
-      </c>
-      <c r="B3" t="str">
-        <f>IF(input!D4 = "None", "N", IF(input!D4 = "Marigold", "M", IF(input!D4 = "Peony"," P", IF(input!D4= "Lilly", "L"))))</f>
-        <v xml:space="preserve"> P</v>
-      </c>
-      <c r="C3" t="str">
-        <f>IF(input!E4 = "None", "N", IF(input!E4 = "Marigold", "M", IF(input!E4 = "Peony"," P", IF(input!E4= "Lilly", "L"))))</f>
-        <v>N</v>
-      </c>
-      <c r="D3" t="e">
-        <f>IF(input!#REF! = "None", "N", IF(input!#REF! = "Marigold", "M", IF(input!#REF! = "Peony"," P", IF(input!#REF!= "Lilly", "L"))))</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/plant.xlsx
+++ b/plant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemarie/Desktop/Robotics/robotics final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F2F22E-B38F-5341-BB19-85673C0042E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1538E108-DC04-334A-970F-940C6ABB293A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{3E9BF8D4-5728-0246-BDA6-D65734CA3C81}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{3E9BF8D4-5728-0246-BDA6-D65734CA3C81}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Marigold</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Gardenia</t>
+  </si>
+  <si>
+    <t>Rose</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="three" spid="_x0000_s1110"/>
+                  <a14:cameraTool cellRange="three" spid="_x0000_s1121"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -351,7 +354,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$2" spid="_x0000_s1111"/>
+                  <a14:cameraTool cellRange="$N$2" spid="_x0000_s1122"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -663,7 +666,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="form" spid="_x0000_s2066"/>
+                  <a14:cameraTool cellRange="form" spid="_x0000_s2071"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1002,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A7ED5-5837-0C4E-B714-6FE7A78F3A62}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1044,7 +1047,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1484,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD8FC5D-5434-5D47-BCF7-25B3DC06C8BA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1505,20 +1508,23 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" t="str">
-        <f>IF(input!D3 = "Lisianthus", "1", IF(input!D3 = "Rose", "2", IF(input!D3 = "Carnation"," 3", IF(input!D3= "Gardenia", "5"))))</f>
-        <v xml:space="preserve"> 3</v>
-      </c>
-      <c r="C2" t="str">
-        <f>IF(input!E3 = "Lisianthus", "1", IF(input!E3 = "Rose", "2", IF(input!E3 = "Carnation"," 3", IF(input!E3= "Gardenia", "5"))))</f>
-        <v xml:space="preserve"> 3</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(input!D4 = "Lisianthus", "1", IF(input!D4 = "Rose", "2", IF(input!D4 = "Carnation"," 3", IF(input!D4= "Gardenia", "5"))))</f>
-        <v xml:space="preserve"> 3</v>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(input!E4 = "Lisianthus", "1", IF(input!E4 = "Rose", "2", IF(input!E4 = "Carnation"," 3", IF(input!E4= "Gardenia", "4"))))</f>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(input!D3 = "Lisianthus", 1, IF(input!D3 = "Rose", 2, IF(input!D3 = "Carnation",3, IF(input!D3= "Gardenia", 4))))</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>IF(input!E3 = "Lisianthus", 1, IF(input!E3 = "Rose", 2, IF(input!E3 = "Carnation",3, IF(input!E3= "Gardenia", 4))))</f>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>IF(input!D4= "Lisianthus", 1, IF(input!D4 = "Rose", 2, IF(input!D4= "Carnation",3, IF(input!D4= "Gardenia", 4))))</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>IF(input!E4= "Lisianthus", 1, IF(input!E4 = "Rose", 2, IF(input!E4= "Carnation",3, IF(input!E4= "Gardenia", 4))))</f>
         <v>4</v>
       </c>
     </row>
